--- a/biology/Zoologie/Symphoromyia_marginata/Symphoromyia_marginata.xlsx
+++ b/biology/Zoologie/Symphoromyia_marginata/Symphoromyia_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symphoromyia marginiata est une espèce fossile d'insectes diptères de la famille des Rhagionidae (les « mouches bécassines »).
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Symphoromyia marginata est décrite en 1937 par le paléontologue français Théobald (1903-1981) dans sa thèse[1],[2].
-Holotype
-L'holotype et échantillon R892, avec sa contre empreinte R962, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin[1],[2].
-Étymologie
-L'épithète spécifique latine marginata signifie « marginalisé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Symphoromyia marginata est décrite en 1937 par le paléontologue français Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -543,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de taille moyenne, forme élancée. tête grosse, transversale ; deux gros yeux de forme ovale et contigus, facettes bien conservées ; une antenne implantée à la partie inférieure de la tête, trois articles dont le premier est filiforme. Thorax noir, plus large que long ; suture transversale bien visible, séparant le prescutum à l'avant et scutum à l'arrière. Ailes insérées latéralement, écartées ; nervation assez bien conservée (v. fig.) ; C s'étendant jusqu'au sommet de l'aile, Sc et R indistinct dans la moitié interne de l'aile, se séparant au-delà ; Sc se réunissant à C sous un angle prononcé ; R se joignant progressivement à C vers le tiers externe de l'aile ; entre C et R, aire brune de couleur plus foncée que le reste de l'aile ; Rs se divise en deux branches, la branche postérieure, fourchue, embrasse le sommet de l'aile ; M avec cellule fermée, se divise en trois rameaux ; Cu forte, se bifurque et se réunit à M ; A peu développée, se termine au voisinage de la branche postérieure de Cu. Pattes manquent. Abdomen conservé en partie ; cinq segments entiers et fragments des deux suivants ; se rétrécit vers l'arrière ; couleur brunâtre ; deux taches foncées en forme de secteur sont conservées dans les angles postérieurs du 1er segment abdominal. »[1].
-Dimensions
-La longueur totale est supérieure à 5,5 mm, Les ailes ont une longueur de 4,75 mm et une largeur de 2 mm [1].
-Affinités
-« L'Insecte appartient sans doute à la famille des Rhagionidae. Il se rapproche de Symphoromyia immaculata qui a des ailes claires ou légèrement brunies, mais ce dernier ne mesure que 4-5 mm ; il vit en Europe centrale.
-On a décrit des Leptidae fossiles de l'ambre de la Baltique et du Miocène de Florissant. »[1].
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et échantillon R892, avec sa contre empreinte R962, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin,.
 </t>
         </is>
       </c>
@@ -581,13 +590,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine marginata signifie « marginalisé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de taille moyenne, forme élancée. tête grosse, transversale ; deux gros yeux de forme ovale et contigus, facettes bien conservées ; une antenne implantée à la partie inférieure de la tête, trois articles dont le premier est filiforme. Thorax noir, plus large que long ; suture transversale bien visible, séparant le prescutum à l'avant et scutum à l'arrière. Ailes insérées latéralement, écartées ; nervation assez bien conservée (v. fig.) ; C s'étendant jusqu'au sommet de l'aile, Sc et R indistinct dans la moitié interne de l'aile, se séparant au-delà ; Sc se réunissant à C sous un angle prononcé ; R se joignant progressivement à C vers le tiers externe de l'aile ; entre C et R, aire brune de couleur plus foncée que le reste de l'aile ; Rs se divise en deux branches, la branche postérieure, fourchue, embrasse le sommet de l'aile ; M avec cellule fermée, se divise en trois rameaux ; Cu forte, se bifurque et se réunit à M ; A peu développée, se termine au voisinage de la branche postérieure de Cu. Pattes manquent. Abdomen conservé en partie ; cinq segments entiers et fragments des deux suivants ; se rétrécit vers l'arrière ; couleur brunâtre ; deux taches foncées en forme de secteur sont conservées dans les angles postérieurs du 1er segment abdominal. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est supérieure à 5,5 mm, Les ailes ont une longueur de 4,75 mm et une largeur de 2 mm .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'Insecte appartient sans doute à la famille des Rhagionidae. Il se rapproche de Symphoromyia immaculata qui a des ailes claires ou légèrement brunies, mais ce dernier ne mesure que 4-5 mm ; il vit en Europe centrale.
+On a décrit des Leptidae fossiles de l'ambre de la Baltique et du Miocène de Florissant. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphoromyia_marginata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les larves sont amphipneustiques[note 2],[3], terrestres, saprophages, carnivores par occasion. Mouches errantes, carnivores. »[1].
+« Les larves sont amphipneustiques[note 2] terrestres, saprophages, carnivores par occasion. Mouches errantes, carnivores. ».
 </t>
         </is>
       </c>
